--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
-    <sheet name="topic" sheetId="13" r:id="rId2"/>
-    <sheet name="lecturer" sheetId="1" r:id="rId3"/>
-    <sheet name="professor" sheetId="3" r:id="rId4"/>
-    <sheet name="announcement" sheetId="9" r:id="rId5"/>
-    <sheet name="activity_details" sheetId="17" r:id="rId6"/>
-    <sheet name="activity" sheetId="7" r:id="rId7"/>
-    <sheet name="enrollment" sheetId="2" r:id="rId8"/>
-    <sheet name="offering" sheetId="16" r:id="rId9"/>
+    <sheet name="enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="professor" sheetId="3" r:id="rId3"/>
+    <sheet name="offering" sheetId="16" r:id="rId4"/>
+    <sheet name="topic" sheetId="13" r:id="rId5"/>
+    <sheet name="lecturer" sheetId="1" r:id="rId6"/>
+    <sheet name="announcement" sheetId="9" r:id="rId7"/>
+    <sheet name="activity_details" sheetId="17" r:id="rId8"/>
+    <sheet name="activity" sheetId="7" r:id="rId9"/>
     <sheet name="lecturer_attendance" sheetId="10" r:id="rId10"/>
     <sheet name="student" sheetId="5" r:id="rId11"/>
     <sheet name="lecturer_feedback" sheetId="11" r:id="rId12"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>announcement_identifier</t>
+  </si>
+  <si>
+    <t>enrollment_is_active</t>
   </si>
 </sst>
 </file>
@@ -879,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1106,311 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>201111112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>201122222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>201111111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>201111112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>201122222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,9 +1419,10 @@
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1127,8 +1435,11 @@
       <c r="D1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1141,8 +1452,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1153,6 +1467,9 @@
         <v>113</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1298,154 +1615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>201111112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>201122222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>201111111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1529,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1580,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1670,139 +1840,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>201111112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>201122222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -15,17 +15,18 @@
     <sheet name="admin" sheetId="8" r:id="rId1"/>
     <sheet name="enrollment" sheetId="2" r:id="rId2"/>
     <sheet name="professor" sheetId="3" r:id="rId3"/>
-    <sheet name="offering" sheetId="16" r:id="rId4"/>
-    <sheet name="subject" sheetId="19" r:id="rId5"/>
+    <sheet name="course" sheetId="16" r:id="rId4"/>
+    <sheet name="offering" sheetId="22" r:id="rId5"/>
     <sheet name="lecturer" sheetId="20" r:id="rId6"/>
-    <sheet name="schedule" sheetId="21" r:id="rId7"/>
-    <sheet name="topic" sheetId="18" r:id="rId8"/>
-    <sheet name="announcement" sheetId="9" r:id="rId9"/>
-    <sheet name="activity_details" sheetId="17" r:id="rId10"/>
-    <sheet name="activity" sheetId="7" r:id="rId11"/>
-    <sheet name="lecturer_attendance" sheetId="10" r:id="rId12"/>
-    <sheet name="student" sheetId="5" r:id="rId13"/>
-    <sheet name="lecturer_feedback" sheetId="11" r:id="rId14"/>
+    <sheet name="subject" sheetId="19" r:id="rId7"/>
+    <sheet name="schedule" sheetId="21" r:id="rId8"/>
+    <sheet name="topic" sheetId="18" r:id="rId9"/>
+    <sheet name="announcement" sheetId="9" r:id="rId10"/>
+    <sheet name="activity_details" sheetId="17" r:id="rId11"/>
+    <sheet name="activity" sheetId="7" r:id="rId12"/>
+    <sheet name="lecturer_attendance" sheetId="10" r:id="rId13"/>
+    <sheet name="student" sheetId="5" r:id="rId14"/>
+    <sheet name="lecturer_feedback" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="213">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -198,18 +199,6 @@
     <t>mark</t>
   </si>
   <si>
-    <t>offering_course_code</t>
-  </si>
-  <si>
-    <t>offering_course_title</t>
-  </si>
-  <si>
-    <t>offering_program</t>
-  </si>
-  <si>
-    <t>offering_section</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -369,12 +358,6 @@
     <t>allen</t>
   </si>
   <si>
-    <t>announcement_announcer_id</t>
-  </si>
-  <si>
-    <t>announcement_identifier</t>
-  </si>
-  <si>
     <t>enrollment_is_active</t>
   </si>
   <si>
@@ -444,12 +427,6 @@
     <t>ME CORRELATION COURSE 1</t>
   </si>
   <si>
-    <t>M21</t>
-  </si>
-  <si>
-    <t>M22</t>
-  </si>
-  <si>
     <t>subject_description</t>
   </si>
   <si>
@@ -675,19 +652,31 @@
     <t>mgascan</t>
   </si>
   <si>
-    <t>schedule_day</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>announcement_name</t>
+  </si>
+  <si>
+    <t>Juan Carlo Valencia</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_course_code</t>
+  </si>
+  <si>
+    <t>course_course_title</t>
+  </si>
+  <si>
+    <t>course_department</t>
+  </si>
+  <si>
+    <t>offering_name</t>
+  </si>
+  <si>
+    <t>K31</t>
+  </si>
+  <si>
+    <t>K32</t>
   </si>
 </sst>
 </file>
@@ -1042,16 +1031,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1060,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1068,22 +1057,22 @@
         <v>202011111</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1093,6 +1082,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>1515589773</v>
+      </c>
+      <c r="E2">
+        <v>1515589773</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1143,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1163,25 +1231,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1192,13 +1260,13 @@
         <v>1515640639</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1215,13 +1283,13 @@
         <v>1515727219</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1235,12 +1303,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,19 +1322,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1308,12 +1376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,13 +1402,13 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1355,10 +1423,10 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1387,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1398,28 +1466,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1430,28 +1498,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1462,28 +1530,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>158</v>
-      </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1494,28 +1562,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1526,28 +1594,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1558,28 +1626,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1590,28 +1658,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1622,28 +1690,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1654,28 +1722,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1686,28 +1754,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1718,28 +1786,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1750,28 +1818,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1782,28 +1850,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -1814,28 +1882,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1846,28 +1914,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -1878,28 +1946,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1910,28 +1978,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1942,28 +2010,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1981,12 +2049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2000,16 +2068,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
@@ -2023,7 +2091,7 @@
         <v>1515455338</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2064,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2106,7 +2174,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2127,13 +2195,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -2148,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2177,7 +2245,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2206,7 +2274,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2214,28 +2282,28 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2243,28 +2311,28 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
         <v>122</v>
       </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
-      </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2275,141 +2343,163 @@
     <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.90625" customWidth="1"/>
     <col min="5" max="5" width="14.453125" customWidth="1"/>
     <col min="6" max="6" width="16.1796875" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>201111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>201122222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>201111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>201111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>201122222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>201122222</v>
+        <v>212</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2417,12 +2507,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>201011111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>201022222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2430,197 +2649,73 @@
     <col min="1" max="1" width="10.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>201011111</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>201022222</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>201011111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>201022222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2634,30 +2729,27 @@
     <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2668,19 +2760,16 @@
         <v>39600</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>201011111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2691,19 +2780,16 @@
         <v>54000</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
         <v>201011111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2714,19 +2800,16 @@
         <v>39600</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>215</v>
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
         <v>201022222</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2737,29 +2820,27 @@
         <v>54000</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>216</v>
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
         <v>201022222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2773,19 +2854,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2793,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2810,10 +2891,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2827,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2844,100 +2925,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2">
-        <v>1515589773</v>
-      </c>
-      <c r="E2">
-        <v>1515589773</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>202011111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="course" sheetId="23" r:id="rId4"/>
     <sheet name="offering" sheetId="22" r:id="rId5"/>
     <sheet name="lecturer" sheetId="20" r:id="rId6"/>
-    <sheet name="subject" sheetId="19" r:id="rId7"/>
+    <sheet name="subject" sheetId="27" r:id="rId7"/>
     <sheet name="schedule" sheetId="26" r:id="rId8"/>
     <sheet name="topic" sheetId="18" r:id="rId9"/>
     <sheet name="announcement" sheetId="25" r:id="rId10"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="212">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>id_number</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2498,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,115 +2521,124 @@
     <col min="11" max="11" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>201011111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>201022222</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2638,16 +2650,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2678,7 +2689,7 @@
         <v>127</v>
       </c>
       <c r="D2">
-        <v>201011111</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2695,7 +2706,7 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>201022222</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2703,7 +2714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2712,7 +2722,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2759,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="E2">
-        <v>201011111</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2779,7 +2789,7 @@
         <v>93</v>
       </c>
       <c r="E3">
-        <v>201011111</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2799,7 +2809,7 @@
         <v>92</v>
       </c>
       <c r="E4">
-        <v>201022222</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2819,7 +2829,7 @@
         <v>93</v>
       </c>
       <c r="E5">
-        <v>201022222</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2834,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -1300,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,9 +1313,10 @@
     <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1331,8 +1332,11 @@
       <c r="E1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1348,8 +1352,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1363,6 +1370,9 @@
         <v>1515503216</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
@@ -2347,7 +2357,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2650,7 +2660,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2844,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2085,7 +2085,7 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="213">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>id_number</t>
+  </si>
+  <si>
+    <t>professor_feedback_active</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2176,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2193,9 +2196,10 @@
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.90625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2223,8 +2227,11 @@
       <c r="I1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>201111111</v>
       </c>
@@ -2252,8 +2259,11 @@
       <c r="I2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>201122222</v>
       </c>
@@ -2281,8 +2291,11 @@
       <c r="I3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>201133333</v>
       </c>
@@ -2310,8 +2323,11 @@
       <c r="I4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>201144444</v>
       </c>
@@ -2338,6 +2354,9 @@
       </c>
       <c r="I5" t="s">
         <v>54</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2533,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2529,6 +2548,7 @@
     <col min="9" max="9" width="19.54296875" customWidth="1"/>
     <col min="10" max="10" width="20.26953125" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -2598,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>54</v>
@@ -2657,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2719,6 +2739,23 @@
         <v>2</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,10 +1333,10 @@
         <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2181,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2879,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1434,7 +1434,7 @@
         <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1626,7 +1626,7 @@
         <v>54</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1658,7 +1658,7 @@
         <v>54</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1690,7 +1690,7 @@
         <v>54</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1722,7 +1722,7 @@
         <v>54</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1754,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1786,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1818,7 +1818,7 @@
         <v>54</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1850,7 +1850,7 @@
         <v>54</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1882,7 +1882,7 @@
         <v>54</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1914,7 +1914,7 @@
         <v>54</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1946,7 +1946,7 @@
         <v>54</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1978,7 +1978,7 @@
         <v>54</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2010,7 +2010,7 @@
         <v>54</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2042,7 +2042,7 @@
         <v>54</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -643,9 +643,6 @@
     <t>mgascan</t>
   </si>
   <si>
-    <t>announcement_name</t>
-  </si>
-  <si>
     <t>Juan Carlo Valencia</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>professor_feedback_active</t>
+  </si>
+  <si>
+    <t>announcement_announcer</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1124,7 @@
         <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
@@ -2216,7 +2216,7 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2228,7 +2228,7 @@
         <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2391,16 +2391,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -2473,10 +2473,10 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2506,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="professor" sheetId="3" r:id="rId3"/>
     <sheet name="course" sheetId="23" r:id="rId4"/>
     <sheet name="offering" sheetId="22" r:id="rId5"/>
-    <sheet name="lecturer" sheetId="20" r:id="rId6"/>
-    <sheet name="subject" sheetId="27" r:id="rId7"/>
-    <sheet name="schedule" sheetId="26" r:id="rId8"/>
-    <sheet name="topic" sheetId="18" r:id="rId9"/>
-    <sheet name="announcement" sheetId="25" r:id="rId10"/>
-    <sheet name="activity_details" sheetId="17" r:id="rId11"/>
-    <sheet name="activity" sheetId="7" r:id="rId12"/>
-    <sheet name="lecturer_attendance" sheetId="10" r:id="rId13"/>
-    <sheet name="student" sheetId="5" r:id="rId14"/>
-    <sheet name="lecturer_feedback" sheetId="11" r:id="rId15"/>
+    <sheet name="lecturer" sheetId="28" r:id="rId6"/>
+    <sheet name="fic" sheetId="29" r:id="rId7"/>
+    <sheet name="subject" sheetId="27" r:id="rId8"/>
+    <sheet name="schedule" sheetId="26" r:id="rId9"/>
+    <sheet name="topic" sheetId="18" r:id="rId10"/>
+    <sheet name="announcement" sheetId="25" r:id="rId11"/>
+    <sheet name="activity_details" sheetId="17" r:id="rId12"/>
+    <sheet name="activity" sheetId="7" r:id="rId13"/>
+    <sheet name="lecturer_attendance" sheetId="10" r:id="rId14"/>
+    <sheet name="student" sheetId="5" r:id="rId15"/>
+    <sheet name="lecturer_feedback" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -67,12 +68,6 @@
     <t>ME graduate</t>
   </si>
   <si>
-    <t>rbbabaran</t>
-  </si>
-  <si>
-    <t>ronald</t>
-  </si>
-  <si>
     <t>rbbabaran@gmail.com</t>
   </si>
   <si>
@@ -94,15 +89,6 @@
     <t>Gannaban</t>
   </si>
   <si>
-    <t>Accountancy</t>
-  </si>
-  <si>
-    <t>mggatan</t>
-  </si>
-  <si>
-    <t>marivic</t>
-  </si>
-  <si>
     <t>mggatan@gmail.com</t>
   </si>
   <si>
@@ -364,12 +350,6 @@
     <t>topic_is_done</t>
   </si>
   <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Hydraulics</t>
-  </si>
-  <si>
     <t>Algebra</t>
   </si>
   <si>
@@ -677,6 +657,96 @@
   </si>
   <si>
     <t>announcement_announcer</t>
+  </si>
+  <si>
+    <t>fic_id</t>
+  </si>
+  <si>
+    <t>fic_department</t>
+  </si>
+  <si>
+    <t>Riza</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Malaya</t>
+  </si>
+  <si>
+    <t>riza</t>
+  </si>
+  <si>
+    <t>rbmalaya@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>ECECORREL1</t>
+  </si>
+  <si>
+    <t>EECORREL1</t>
+  </si>
+  <si>
+    <t>ECE CORRELATION COURSE 1</t>
+  </si>
+  <si>
+    <t>EE CORRELATION COURSE 1</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>Rona Mae</t>
+  </si>
+  <si>
+    <t>ECE graduate</t>
+  </si>
+  <si>
+    <t>rgbabaran@gmail.com</t>
+  </si>
+  <si>
+    <t>Ralph Denver</t>
+  </si>
+  <si>
+    <t>CE graduate</t>
+  </si>
+  <si>
+    <t>EE graduate</t>
+  </si>
+  <si>
+    <t>rbgatan@gmail.com</t>
+  </si>
+  <si>
+    <t>Mathematics CE</t>
+  </si>
+  <si>
+    <t>Hydraulics ME</t>
+  </si>
+  <si>
+    <t>Hydraulics CE</t>
+  </si>
+  <si>
+    <t>Mathematics ME</t>
+  </si>
+  <si>
+    <t>Mathematics ECE</t>
+  </si>
+  <si>
+    <t>Mathematics EE</t>
+  </si>
+  <si>
+    <t>Hydraulics ECE</t>
+  </si>
+  <si>
+    <t>Hydraulics EE</t>
   </si>
 </sst>
 </file>
@@ -1031,16 +1101,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1049,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1057,22 +1127,22 @@
         <v>202011111</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1083,9 +1153,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1103,28 +1280,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1132,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>1515589773</v>
@@ -1150,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1174,10 +1351,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1185,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1193,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1201,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1229,25 +1406,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1258,13 +1435,13 @@
         <v>1515640639</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1281,13 +1458,13 @@
         <v>1515727219</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1301,7 +1478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1321,22 +1498,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1384,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -1407,16 +1584,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1425,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1442,7 +1619,7 @@
         <v>201511281</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1451,19 +1628,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1474,28 +1651,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1506,28 +1683,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1538,28 +1715,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1570,28 +1747,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1602,28 +1779,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1634,28 +1811,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1666,28 +1843,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1698,28 +1875,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1730,28 +1907,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1762,28 +1939,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1794,28 +1971,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1826,28 +2003,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1858,28 +2035,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -1890,28 +2067,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1922,28 +2099,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -1954,28 +2131,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1986,28 +2163,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2018,28 +2195,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2057,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2076,16 +2253,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2099,7 +2276,7 @@
         <v>1515455338</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>201511281</v>
@@ -2131,16 +2308,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2148,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2162,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2181,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2201,22 +2378,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2225,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2236,28 +2413,28 @@
         <v>201111111</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2268,28 +2445,28 @@
         <v>201122222</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2300,28 +2477,28 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>102</v>
-      </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2332,28 +2509,28 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2373,17 +2550,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.26953125" customWidth="1"/>
     <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
     <col min="4" max="4" width="21.90625" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="16.81640625" customWidth="1"/>
@@ -2391,22 +2568,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2414,13 +2591,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2434,13 +2611,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2449,17 +2626,58 @@
         <v>201122222</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>201133333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>201144444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2468,59 +2686,130 @@
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2530,66 +2819,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2606,28 +2888,22 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2635,52 +2911,199 @@
         <v>201022222</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201033333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>201044444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2689,23 +3112,24 @@
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2713,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2730,16 +3154,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2747,16 +3171,101 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2784,22 +3293,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2813,7 +3322,7 @@
         <v>39600</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2833,7 +3342,7 @@
         <v>54000</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2853,7 +3362,7 @@
         <v>39600</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2873,120 +3382,13 @@
         <v>54000</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
     <sheet name="enrollment" sheetId="2" r:id="rId2"/>
     <sheet name="professor" sheetId="3" r:id="rId3"/>
     <sheet name="course" sheetId="23" r:id="rId4"/>
-    <sheet name="offering" sheetId="22" r:id="rId5"/>
+    <sheet name="offering" sheetId="30" r:id="rId5"/>
     <sheet name="lecturer" sheetId="28" r:id="rId6"/>
     <sheet name="fic" sheetId="29" r:id="rId7"/>
     <sheet name="subject" sheetId="27" r:id="rId8"/>
@@ -2676,15 +2676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3102,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3129,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
     <sheet name="enrollment" sheetId="2" r:id="rId2"/>
     <sheet name="professor" sheetId="3" r:id="rId3"/>
     <sheet name="course" sheetId="23" r:id="rId4"/>
-    <sheet name="offering" sheetId="30" r:id="rId5"/>
-    <sheet name="lecturer" sheetId="28" r:id="rId6"/>
-    <sheet name="fic" sheetId="29" r:id="rId7"/>
+    <sheet name="fic" sheetId="31" r:id="rId5"/>
+    <sheet name="offering" sheetId="30" r:id="rId6"/>
+    <sheet name="lecturer" sheetId="28" r:id="rId7"/>
     <sheet name="subject" sheetId="27" r:id="rId8"/>
     <sheet name="schedule" sheetId="26" r:id="rId9"/>
     <sheet name="topic" sheetId="18" r:id="rId10"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="237">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>Hydraulics EE</t>
+  </si>
+  <si>
+    <t>offering_department</t>
   </si>
 </sst>
 </file>
@@ -2674,15 +2677,99 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2690,121 +2777,148 @@
         <v>199</v>
       </c>
       <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>200</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>201</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>217</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>219</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>218</v>
       </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="C8" t="s">
+        <v>108</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>220</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
@@ -2813,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -3004,93 +3118,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="244">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,8 +1347,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>194</v>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2262,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3263,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="245">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>lecturer_feedback_department</t>
+  </si>
+  <si>
+    <t>fic_status</t>
   </si>
 </sst>
 </file>
@@ -2719,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2736,7 +2739,7 @@
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -2764,8 +2767,11 @@
       <c r="I1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2793,8 +2799,11 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2822,8 +2831,11 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2851,8 +2863,11 @@
       <c r="I4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2879,6 +2894,9 @@
       </c>
       <c r="I5" t="s">
         <v>108</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2725,7 +2725,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="lecturer_attendance" sheetId="10" r:id="rId14"/>
     <sheet name="student" sheetId="5" r:id="rId15"/>
     <sheet name="lecturer_feedback" sheetId="11" r:id="rId16"/>
+    <sheet name="log_content" sheetId="32" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -774,6 +775,15 @@
   </si>
   <si>
     <t>fic_status</t>
+  </si>
+  <si>
+    <t>log_content_id</t>
+  </si>
+  <si>
+    <t>log_content_name</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -2338,6 +2348,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
@@ -2724,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2353,7 +2353,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>D:/XAMPP/htdocs/Engineering/assets/img/profiles/profile.jpg</t>
-  </si>
-  <si>
     <t>activity_id</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>student_department</t>
+  </si>
+  <si>
+    <t>assets/img/profiles/profile.jpg</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -1182,22 +1182,22 @@
         <v>202011111</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1225,19 +1225,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1245,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1279,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1334,28 +1334,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1363,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1515589773</v>
@@ -1378,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1460,25 +1460,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
       </c>
       <c r="F1" t="s">
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1489,13 +1489,13 @@
         <v>1515640639</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1512,13 +1512,13 @@
         <v>1515727219</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1552,16 +1552,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1633,7 +1633,8 @@
     <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="10" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="46.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1656,10 +1657,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>47</v>
@@ -1694,7 +1695,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1705,28 +1706,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1737,28 +1738,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1769,28 +1770,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1801,28 +1802,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1833,28 +1834,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1865,28 +1866,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1897,28 +1898,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1929,28 +1930,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1961,28 +1962,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1993,28 +1994,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -2025,28 +2026,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -2057,28 +2058,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -2089,28 +2090,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -2121,28 +2122,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -2153,28 +2154,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2185,28 +2186,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2217,28 +2218,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2249,28 +2250,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2310,16 +2311,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -2342,7 +2343,7 @@
         <v>1515455338</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -2368,7 +2369,7 @@
         <v>1517149393</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2394,7 +2395,7 @@
         <v>1517152407</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -2420,7 +2421,7 @@
         <v>1517152410</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2446,7 +2447,7 @@
         <v>1517152981</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2472,7 +2473,7 @@
         <v>1517152985</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2511,10 +2512,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2522,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2598,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2633,7 +2634,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2645,7 +2646,7 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2674,7 +2675,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2706,7 +2707,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2717,28 +2718,28 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2749,28 +2750,28 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>110</v>
       </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2808,16 +2809,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2831,10 +2832,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -2851,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -2871,13 +2872,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2891,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2916,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2933,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -2951,16 +2952,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2968,25 +2969,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3000,25 +3001,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" t="s">
-        <v>208</v>
-      </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -3032,28 +3033,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
-        <v>208</v>
-      </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3064,28 +3065,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
         <v>207</v>
       </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3122,16 +3123,16 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3139,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3156,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -3173,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3190,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -3207,10 +3208,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3224,10 +3225,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3241,10 +3242,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3258,10 +3259,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3280,7 +3281,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3302,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
@@ -3317,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -3326,7 +3327,7 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3346,7 +3347,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -3355,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3387,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3401,7 +3402,7 @@
         <v>201033333</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3410,16 +3411,16 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3433,7 +3434,7 @@
         <v>201044444</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3442,16 +3443,16 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3488,13 +3489,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3508,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3525,10 +3526,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3542,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3559,10 +3560,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3576,10 +3577,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3593,10 +3594,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3610,10 +3611,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3627,10 +3628,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3664,16 +3665,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -3693,7 +3694,7 @@
         <v>39600</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3713,7 +3714,7 @@
         <v>54000</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3733,7 +3734,7 @@
         <v>39600</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3753,7 +3754,7 @@
         <v>54000</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>2</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="lecturer" sheetId="28" r:id="rId7"/>
     <sheet name="subject" sheetId="27" r:id="rId8"/>
     <sheet name="schedule" sheetId="26" r:id="rId9"/>
-    <sheet name="topic" sheetId="18" r:id="rId10"/>
-    <sheet name="announcement" sheetId="33" r:id="rId11"/>
-    <sheet name="activity_details" sheetId="17" r:id="rId12"/>
-    <sheet name="activity" sheetId="7" r:id="rId13"/>
-    <sheet name="lecturer_attendance" sheetId="10" r:id="rId14"/>
+    <sheet name="lecturer_attendance" sheetId="10" r:id="rId10"/>
+    <sheet name="topic" sheetId="18" r:id="rId11"/>
+    <sheet name="announcement" sheetId="33" r:id="rId12"/>
+    <sheet name="activity_details" sheetId="17" r:id="rId13"/>
+    <sheet name="activity" sheetId="7" r:id="rId14"/>
     <sheet name="student" sheetId="5" r:id="rId15"/>
     <sheet name="lecturer_feedback" sheetId="11" r:id="rId16"/>
     <sheet name="log_content" sheetId="32" r:id="rId17"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="254">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,25 +1136,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>202011111</v>
       </c>
@@ -1207,23 +1207,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1515455338</v>
+      </c>
+      <c r="C2">
+        <v>1515455338</v>
+      </c>
+      <c r="D2">
+        <v>1515476979</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1515479755</v>
+      </c>
+      <c r="C3">
+        <v>1515479755</v>
+      </c>
+      <c r="D3">
+        <v>1515503216</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1518166800</v>
+      </c>
+      <c r="C4">
+        <v>1518166800</v>
+      </c>
+      <c r="D4">
+        <v>1518174000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1240,7 +1355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1257,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1274,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1291,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1313,26 +1428,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1358,7 +1473,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1389,21 +1504,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1419,7 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1427,7 +1542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1440,25 +1555,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1481,7 +1596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1504,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1524,89 +1639,6 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1515455338</v>
-      </c>
-      <c r="C2">
-        <v>1515455338</v>
-      </c>
-      <c r="D2">
-        <v>1515476979</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1515479755</v>
-      </c>
-      <c r="C3">
-        <v>1515479755</v>
-      </c>
-      <c r="D3">
-        <v>1515503216</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
         <v>2</v>
       </c>
     </row>
@@ -1616,28 +1648,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="46.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="46.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1669,7 +1701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201511281</v>
       </c>
@@ -1701,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201511438</v>
       </c>
@@ -1733,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201411491</v>
       </c>
@@ -1765,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201410679</v>
       </c>
@@ -1797,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>201411851</v>
       </c>
@@ -1829,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>201410215</v>
       </c>
@@ -1861,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>201420096</v>
       </c>
@@ -1893,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201512590</v>
       </c>
@@ -1925,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>201411823</v>
       </c>
@@ -1957,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>201410617</v>
       </c>
@@ -1989,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>201410881</v>
       </c>
@@ -2021,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>201512068</v>
       </c>
@@ -2053,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>201512491</v>
       </c>
@@ -2085,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>201510652</v>
       </c>
@@ -2117,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>201511230</v>
       </c>
@@ -2149,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>201511911</v>
       </c>
@@ -2181,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>201510573</v>
       </c>
@@ -2213,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>201512532</v>
       </c>
@@ -2245,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>201510186</v>
       </c>
@@ -2279,10 +2311,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4:G7" r:id="rId3" display="adre@fit.edu.ph"/>
-    <hyperlink ref="G8:G20" r:id="rId4" display="adre@fit.edu.ph"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="G4:G7" r:id="rId3" display="adre@fit.edu.ph" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="G8:G20" r:id="rId4" display="adre@fit.edu.ph" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2290,26 +2322,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2335,7 +2367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2361,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2387,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2413,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2439,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2465,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2497,20 +2529,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -2518,7 +2550,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2532,22 +2564,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +2593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2575,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2596,28 +2628,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2649,7 +2681,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201111111</v>
       </c>
@@ -2681,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201122222</v>
       </c>
@@ -2713,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201133333</v>
       </c>
@@ -2745,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201144444</v>
       </c>
@@ -2779,10 +2811,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2790,24 +2822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -2827,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2847,7 +2879,7 @@
         <v>201111111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2867,7 +2899,7 @@
         <v>201122222</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2887,7 +2919,7 @@
         <v>201133333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2914,25 +2946,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2964,7 +2996,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2996,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3028,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3060,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3094,31 +3126,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -3135,7 +3167,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3152,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3169,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3186,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3203,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3220,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3237,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3254,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3277,28 +3309,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3362,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3362,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3394,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3426,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3460,10 +3492,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -3471,23 +3503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -3504,7 +3536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3521,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3538,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3555,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3572,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3589,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3606,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3623,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3646,24 +3678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -3683,15 +3715,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28800</v>
+        <v>1517958000</v>
       </c>
       <c r="C2">
-        <v>39600</v>
+        <v>1517968200</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
@@ -3703,15 +3735,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>43200</v>
+        <v>1518066000</v>
       </c>
       <c r="C3">
-        <v>54000</v>
+        <v>1518073200</v>
       </c>
       <c r="D3" t="s">
         <v>86</v>
@@ -3723,15 +3755,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28800</v>
+        <v>1518166800</v>
       </c>
       <c r="C4">
-        <v>39600</v>
+        <v>1518174000</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
@@ -3743,15 +3775,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>43200</v>
+        <v>1518231600</v>
       </c>
       <c r="C5">
-        <v>54000</v>
+        <v>1518238800</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="schedule" sheetId="26" r:id="rId9"/>
     <sheet name="lecturer_attendance" sheetId="34" r:id="rId10"/>
     <sheet name="attendance_in" sheetId="38" r:id="rId11"/>
-    <sheet name="attendance_out" sheetId="37" r:id="rId12"/>
-    <sheet name="topic" sheetId="18" r:id="rId13"/>
-    <sheet name="announcement" sheetId="33" r:id="rId14"/>
-    <sheet name="activity_details" sheetId="17" r:id="rId15"/>
-    <sheet name="activity" sheetId="7" r:id="rId16"/>
-    <sheet name="student" sheetId="5" r:id="rId17"/>
-    <sheet name="lecturer_feedback" sheetId="11" r:id="rId18"/>
-    <sheet name="log_content" sheetId="32" r:id="rId19"/>
+    <sheet name="courseware" sheetId="39" r:id="rId12"/>
+    <sheet name="attendance_out" sheetId="37" r:id="rId13"/>
+    <sheet name="topic" sheetId="18" r:id="rId14"/>
+    <sheet name="announcement" sheetId="33" r:id="rId15"/>
+    <sheet name="activity_details" sheetId="17" r:id="rId16"/>
+    <sheet name="activity" sheetId="7" r:id="rId17"/>
+    <sheet name="student" sheetId="5" r:id="rId18"/>
+    <sheet name="lecturer_feedback" sheetId="11" r:id="rId19"/>
+    <sheet name="log_content" sheetId="32" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="266">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -813,6 +814,33 @@
   </si>
   <si>
     <t>lecturer_attendance_id</t>
+  </si>
+  <si>
+    <t>courseware_id</t>
+  </si>
+  <si>
+    <t>courseware_name</t>
+  </si>
+  <si>
+    <t>Practical Examination</t>
+  </si>
+  <si>
+    <t>courseware_description</t>
+  </si>
+  <si>
+    <t>courseware_date_added</t>
+  </si>
+  <si>
+    <t>courseware_date_edited</t>
+  </si>
+  <si>
+    <t>grade_assessment_id</t>
+  </si>
+  <si>
+    <t>This is a practical examination consists of all mathematical equation starting from the bottom of my heart. Hehe</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4FDCFB-361D-494F-B1A4-A6587B048A60}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,6 +1395,75 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281B8A41-2D96-44EA-B1EA-DF1E479169DE}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2">
+        <v>1518443372</v>
+      </c>
+      <c r="E2">
+        <v>1518443372</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E25F15-0C6C-4CDD-9342-B1C1528A5560}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1425,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1532,7 +1629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1608,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1659,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1751,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -2425,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2625,41 +2722,6 @@
       </c>
       <c r="H7">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2728,6 +2790,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="382">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -1184,6 +1184,15 @@
   </si>
   <si>
     <t>Vibration Engineering</t>
+  </si>
+  <si>
+    <t>subject_list_is_active</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>topic_list_is_active</t>
   </si>
 </sst>
 </file>
@@ -3847,736 +3856,1007 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>290</v>
       </c>
       <c r="B1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>378</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4586,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4597,10 +4877,11 @@
     <col min="1" max="1" width="16.90625" customWidth="1"/>
     <col min="2" max="2" width="68.36328125" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -4611,10 +4892,13 @@
         <v>269</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4624,11 +4908,14 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4638,11 +4925,14 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4652,11 +4942,14 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4667,10 +4960,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4681,10 +4977,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4694,11 +4993,14 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4708,11 +5010,14 @@
       <c r="C8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4722,11 +5027,14 @@
       <c r="C9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4736,11 +5044,14 @@
       <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4751,10 +5062,13 @@
         <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4765,10 +5079,13 @@
         <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4778,11 +5095,14 @@
       <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4792,11 +5112,14 @@
       <c r="C14" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4806,11 +5129,14 @@
       <c r="C15" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4820,11 +5146,14 @@
       <c r="C16" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4835,10 +5164,13 @@
         <v>273</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4849,10 +5181,13 @@
         <v>273</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4863,10 +5198,13 @@
         <v>273</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4877,10 +5215,13 @@
         <v>273</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4890,11 +5231,14 @@
       <c r="C21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4904,11 +5248,14 @@
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4918,11 +5265,14 @@
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4932,11 +5282,14 @@
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4946,11 +5299,14 @@
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4960,11 +5316,14 @@
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4974,7 +5333,10 @@
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="7">
         <v>3</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1192,7 +1192,7 @@
     <t>topic_list_is_active</t>
   </si>
   <si>
-    <t>course_title</t>
+    <t>course_course_title</t>
   </si>
 </sst>
 </file>
@@ -7676,7 +7676,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="student" sheetId="5" r:id="rId21"/>
     <sheet name="lecturer_feedback" sheetId="11" r:id="rId22"/>
     <sheet name="log_content" sheetId="32" r:id="rId23"/>
-    <sheet name="courseware" sheetId="39" r:id="rId24"/>
+    <sheet name="courseware" sheetId="44" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="383">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -1193,6 +1193,9 @@
   </si>
   <si>
     <t>course_course_title</t>
+  </si>
+  <si>
+    <t>courseware_status</t>
   </si>
 </sst>
 </file>
@@ -3790,23 +3793,24 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -3823,13 +3827,16 @@
         <v>261</v>
       </c>
       <c r="F1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3846,6 +3853,9 @@
         <v>1518443372</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
@@ -7675,7 +7685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7188" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="384">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>activity_id</t>
   </si>
   <si>
-    <t>activity_date_time</t>
-  </si>
-  <si>
     <t>activity_venue</t>
   </si>
   <si>
@@ -1196,6 +1193,12 @@
   </si>
   <si>
     <t>courseware_status</t>
+  </si>
+  <si>
+    <t>course_is_active</t>
+  </si>
+  <si>
+    <t>professor_status</t>
   </si>
 </sst>
 </file>
@@ -1548,20 +1551,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -1582,27 +1584,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>202011111</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1619,36 +1621,36 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1660,12 +1662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1677,12 +1679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1694,12 +1696,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1711,15 +1713,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1728,15 +1730,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1745,15 +1747,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1762,15 +1764,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1792,26 +1794,26 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
@@ -1826,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1835,10 +1837,10 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -1864,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1896,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>201033333</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1919,22 +1921,22 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>201044444</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1951,16 +1953,16 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1986,24 +1988,24 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2012,15 +2014,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2029,15 +2031,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2046,15 +2048,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2063,15 +2065,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2080,15 +2082,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2097,15 +2099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2114,15 +2116,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2131,15 +2133,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2161,28 +2163,28 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2191,7 +2193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>1517968200</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2211,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>1518073200</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2231,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>1518174000</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2251,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>1518238800</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2284,21 +2286,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2307,10 +2309,10 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2374,20 +2376,20 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
-        <v>250</v>
-      </c>
       <c r="C1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2398,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2433,20 +2435,20 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
         <v>251</v>
       </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
       <c r="C1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2492,41 +2494,41 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2535,15 +2537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2552,15 +2554,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2569,15 +2571,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2599,52 +2601,52 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
       <c r="D2">
         <v>1515589773</v>
@@ -2656,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2675,13 +2677,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2724,58 +2726,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
         <v>280</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2788,20 +2790,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2815,30 +2818,30 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1515640639</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2847,27 +2850,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1515727219</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2880,24 +2883,24 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="46.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="46.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2917,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
         <v>47</v>
@@ -2929,7 +2932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201511281</v>
       </c>
@@ -2955,583 +2958,583 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3557,30 +3560,29 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="5" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -3595,7 +3597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>1515455338</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -3621,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>1517149393</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3647,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>1517152407</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -3673,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>1517152410</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -3699,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3707,7 +3709,7 @@
         <v>1517152981</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -3725,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>1517152985</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -3764,26 +3766,26 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3795,56 +3797,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
         <v>256</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>257</v>
       </c>
-      <c r="C1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
       </c>
       <c r="D2">
         <v>1518443372</v>
@@ -3872,998 +3874,998 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
         <v>289</v>
       </c>
-      <c r="B1" t="s">
-        <v>290</v>
-      </c>
       <c r="C1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4882,469 +4884,469 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="68.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E27" s="7">
         <v>3</v>
@@ -5364,21 +5366,21 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5418,7 +5420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5530,7 +5532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5586,7 +5588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5626,7 +5628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -5642,7 +5644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -5690,7 +5692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>5</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -5738,7 +5740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>5</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -5754,7 +5756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>5</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>5</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>4</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>5</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>4</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>5</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>6</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -5874,7 +5876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>6</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>6</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>6</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>6</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>6</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>6</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>6</v>
       </c>
@@ -5930,7 +5932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>7</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>8</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>9</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>7</v>
       </c>
@@ -5962,7 +5964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>8</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>9</v>
       </c>
@@ -5978,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>7</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>8</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>9</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>7</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>8</v>
       </c>
@@ -6018,7 +6020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>9</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>7</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>8</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>9</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>7</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>8</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>9</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>7</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>8</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>9</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>7</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>8</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>9</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>7</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>8</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>9</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>7</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>8</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>9</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>7</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>8</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>9</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>10</v>
       </c>
@@ -6202,7 +6204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>11</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>10</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>11</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>10</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>11</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>10</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>11</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>10</v>
       </c>
@@ -6266,7 +6268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>11</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>10</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>11</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>10</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>11</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>10</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>11</v>
       </c>
@@ -6322,7 +6324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>10</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>11</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>12</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>12</v>
       </c>
@@ -6354,7 +6356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>12</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>12</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>12</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>12</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>12</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>12</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>12</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>12</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>12</v>
       </c>
@@ -6426,7 +6428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>13</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>14</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>15</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>13</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>14</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>15</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>13</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>14</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>15</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>13</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>14</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>15</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>13</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>14</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>15</v>
       </c>
@@ -6546,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>13</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>14</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>15</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>13</v>
       </c>
@@ -6578,7 +6580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>14</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>15</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>13</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>14</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>15</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>13</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>14</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>15</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>13</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>14</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>15</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>13</v>
       </c>
@@ -6674,7 +6676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>14</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>15</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>16</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>17</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>16</v>
       </c>
@@ -6714,7 +6716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>17</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>16</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>17</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>16</v>
       </c>
@@ -6746,7 +6748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>17</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>16</v>
       </c>
@@ -6762,7 +6764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>17</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>18</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>19</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>18</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>19</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>18</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>19</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>18</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>19</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>18</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>19</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>18</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>19</v>
       </c>
@@ -6866,7 +6868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>18</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>19</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>20</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>20</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>20</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>20</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>20</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>20</v>
       </c>
@@ -6930,7 +6932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>20</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>21</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>22</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>23</v>
       </c>
@@ -6962,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>21</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>22</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>23</v>
       </c>
@@ -6986,7 +6988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>21</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>22</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>23</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>21</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>22</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>23</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>21</v>
       </c>
@@ -7042,7 +7044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>22</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>23</v>
       </c>
@@ -7058,7 +7060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>21</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>22</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>23</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>21</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>22</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>23</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>21</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>22</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>23</v>
       </c>
@@ -7130,7 +7132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>21</v>
       </c>
@@ -7138,7 +7140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>22</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>23</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>21</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>22</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>23</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>21</v>
       </c>
@@ -7186,7 +7188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>22</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>23</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>21</v>
       </c>
@@ -7210,7 +7212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>22</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>23</v>
       </c>
@@ -7226,7 +7228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>24</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>25</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>24</v>
       </c>
@@ -7250,7 +7252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>25</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>24</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>25</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>24</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>25</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>24</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>25</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>24</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>25</v>
       </c>
@@ -7322,7 +7324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>24</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>25</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>24</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>25</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>26</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>26</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>26</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>26</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>26</v>
       </c>
@@ -7394,7 +7396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>26</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>26</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>26</v>
       </c>
@@ -7431,15 +7433,15 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -7450,10 +7452,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7489,27 +7491,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -7538,10 +7541,13 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201111111</v>
       </c>
@@ -7567,13 +7573,16 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201122222</v>
       </c>
@@ -7599,74 +7608,83 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
         <v>104</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>105</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5">
         <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7683,51 +7701,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
         <v>188</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
       <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -7736,18 +7758,21 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>201111111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -7756,46 +7781,55 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>201122222</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>201133333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>201144444</v>
       </c>
     </row>
@@ -7813,20 +7847,20 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -7844,42 +7878,42 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>47</v>
       </c>
       <c r="I1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="J1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7888,30 +7922,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
         <v>201</v>
       </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -7920,65 +7954,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>201</v>
       </c>
-      <c r="D4" t="s">
-        <v>202</v>
-      </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>201</v>
       </c>
-      <c r="D5" t="s">
-        <v>202</v>
-      </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5">
         <v>1</v>
